--- a/scripts/ESO-2.2m/schedules/P108/schedule-ESO-2.2m-P108.xlsx
+++ b/scripts/ESO-2.2m/schedules/P108/schedule-ESO-2.2m-P108.xlsx
@@ -88,10 +88,10 @@
     <t xml:space="preserve">Zakhozhay</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul</t>
+    <t xml:space="preserve">Andrea Mejías</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrea Mejías</t>
+    <t xml:space="preserve">Paul</t>
   </si>
   <si>
     <t xml:space="preserve">Rix</t>
@@ -406,14 +406,14 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K42" activeCellId="0" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="D174" activeCellId="0" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.13"/>
@@ -691,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>10</v>
@@ -964,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -985,10 +985,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>11</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
@@ -1027,10 +1027,10 @@
         <v>20</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>11</v>
@@ -1048,10 +1048,10 @@
         <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>11</v>
@@ -1069,10 +1069,10 @@
         <v>20</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
@@ -1090,10 +1090,10 @@
         <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="6" t="s">
@@ -1130,7 +1130,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="6" t="s">
@@ -1149,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="6" t="s">
@@ -1168,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="6" t="s">
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="6" t="s">
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="6" t="s">
@@ -1225,7 +1225,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="6" t="s">
@@ -1244,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="6" t="s">
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -1789,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -1806,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -1823,7 +1823,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
@@ -1841,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>11</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>11</v>
@@ -1877,7 +1877,7 @@
         <v>31</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>11</v>
@@ -1895,7 +1895,7 @@
         <v>31</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>11</v>
@@ -1913,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>11</v>
@@ -1931,7 +1931,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>11</v>
@@ -1949,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>11</v>
@@ -1967,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="6" t="s">
@@ -1986,7 +1986,7 @@
         <v>31</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="6" t="s">
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="6" t="s">
@@ -3594,7 +3594,7 @@
         <v>16</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="6" t="s">
@@ -3613,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="6" t="s">
@@ -3632,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="6" t="s">
@@ -3651,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="6" t="s">
@@ -3670,7 +3670,7 @@
         <v>20</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="6" t="s">
@@ -3689,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="6" t="s">
@@ -3708,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="6" t="s">

--- a/scripts/ESO-2.2m/schedules/P108/schedule-ESO-2.2m-P108.xlsx
+++ b/scripts/ESO-2.2m/schedules/P108/schedule-ESO-2.2m-P108.xlsx
@@ -406,14 +406,14 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
-      <selection pane="bottomRight" activeCell="D174" activeCellId="0" sqref="D174"/>
+      <selection pane="bottomLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
+      <selection pane="bottomRight" activeCell="A173" activeCellId="0" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.13"/>
@@ -2157,7 +2157,7 @@
         <v>32</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
@@ -2176,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
@@ -2195,7 +2195,7 @@
         <v>32</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
@@ -2214,7 +2214,7 @@
         <v>33</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
@@ -2233,7 +2233,7 @@
         <v>33</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
@@ -2252,7 +2252,7 @@
         <v>33</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
@@ -2271,7 +2271,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="6" t="s">
@@ -3594,7 +3594,7 @@
         <v>16</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="6" t="s">
@@ -3613,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="6" t="s">
@@ -3632,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="6" t="s">
@@ -3651,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="6" t="s">
@@ -3670,7 +3670,7 @@
         <v>20</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="6" t="s">
@@ -3689,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="6" t="s">
@@ -3708,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="6" t="s">
@@ -4204,7 +4204,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
